--- a/resultados_copa.xlsx
+++ b/resultados_copa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\copa_feminina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735AAF86-6C2D-4936-BE4A-8A98615478DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095F5BA3-E326-4730-BDF1-BCE4C06D3975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{F1A5B348-69CC-4E40-98A3-CFA6B8560525}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="9" xr2:uid="{F1A5B348-69CC-4E40-98A3-CFA6B8560525}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="Planilha6" sheetId="6" r:id="rId6"/>
     <sheet name="Planilha7" sheetId="7" r:id="rId7"/>
     <sheet name="Planilha1 (3)" sheetId="8" r:id="rId8"/>
+    <sheet name="Planilha4" sheetId="9" r:id="rId9"/>
+    <sheet name="Planilha1 (4)" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha2!$A$1:$L$49</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="179">
   <si>
     <t>1C</t>
   </si>
@@ -417,6 +419,162 @@
   </si>
   <si>
     <t>CAMPEA</t>
+  </si>
+  <si>
+    <t>0.020656</t>
+  </si>
+  <si>
+    <t>0.069616</t>
+  </si>
+  <si>
+    <t>0.634752</t>
+  </si>
+  <si>
+    <t>0.013838</t>
+  </si>
+  <si>
+    <t>0.156674</t>
+  </si>
+  <si>
+    <t>0.875344</t>
+  </si>
+  <si>
+    <t>0.688915</t>
+  </si>
+  <si>
+    <t>0.373386</t>
+  </si>
+  <si>
+    <t>0.482239</t>
+  </si>
+  <si>
+    <t>0.307585</t>
+  </si>
+  <si>
+    <t>0.076451</t>
+  </si>
+  <si>
+    <t>0.054409</t>
+  </si>
+  <si>
+    <t>0.637033</t>
+  </si>
+  <si>
+    <t>0.003383</t>
+  </si>
+  <si>
+    <t>0.921210</t>
+  </si>
+  <si>
+    <t>0.691613</t>
+  </si>
+  <si>
+    <t>0.518379</t>
+  </si>
+  <si>
+    <t>0.376143</t>
+  </si>
+  <si>
+    <t>0.741401</t>
+  </si>
+  <si>
+    <t>0.211036</t>
+  </si>
+  <si>
+    <t>0.323016</t>
+  </si>
+  <si>
+    <t>0.494259</t>
+  </si>
+  <si>
+    <t>0.029029</t>
+  </si>
+  <si>
+    <t>0.054467</t>
+  </si>
+  <si>
+    <t>0.925747</t>
+  </si>
+  <si>
+    <t>0.402189</t>
+  </si>
+  <si>
+    <t>0.130995</t>
+  </si>
+  <si>
+    <t>0.705844</t>
+  </si>
+  <si>
+    <t>0.008276</t>
+  </si>
+  <si>
+    <t>0.009736</t>
+  </si>
+  <si>
+    <t>0.415320</t>
+  </si>
+  <si>
+    <t>0.835135</t>
+  </si>
+  <si>
+    <t>0.081030</t>
+  </si>
+  <si>
+    <t>0.098214</t>
+  </si>
+  <si>
+    <t>0.021315</t>
+  </si>
+  <si>
+    <t>0.029623</t>
+  </si>
+  <si>
+    <t>0.658621</t>
+  </si>
+  <si>
+    <t>0.231647</t>
+  </si>
+  <si>
+    <t>0.252782</t>
+  </si>
+  <si>
+    <t>0.766871</t>
+  </si>
+  <si>
+    <t>0.011612</t>
+  </si>
+  <si>
+    <t>0.324847</t>
+  </si>
+  <si>
+    <t>0.798738</t>
+  </si>
+  <si>
+    <t>0.341495</t>
+  </si>
+  <si>
+    <t>0.439392</t>
+  </si>
+  <si>
+    <t>0.389765</t>
+  </si>
+  <si>
+    <t>0.009186</t>
+  </si>
+  <si>
+    <t>0.059792</t>
+  </si>
+  <si>
+    <t>previsão</t>
+  </si>
+  <si>
+    <t>realidade</t>
+  </si>
+  <si>
+    <t>tudo ou nada</t>
+  </si>
+  <si>
+    <t>CAMPEÃ</t>
   </si>
 </sst>
 </file>
@@ -451,12 +609,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -498,7 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -527,6 +709,28 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3909,6 +4113,415 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965724AE-240F-4B20-969F-32B7D3EBD538}">
+  <dimension ref="A1:S25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" customWidth="1"/>
+    <col min="13" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" customWidth="1"/>
+    <col min="16" max="16" width="5.77734375" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" customWidth="1"/>
+    <col min="18" max="18" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="15"/>
+    </row>
+    <row r="15" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" t="s">
+        <v>43</v>
+      </c>
+      <c r="O25" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898D8CAB-B4D0-41D6-B0C0-581B35346985}">
   <dimension ref="A1:K24"/>
@@ -3932,21 +4545,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" t="s">
         <v>19</v>
       </c>
@@ -5676,21 +6289,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" t="s">
         <v>19</v>
       </c>
@@ -7317,7 +7930,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9050,213 +9663,2012 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F28922-F73C-4AA3-8CFB-8BD962039B8E}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>18</v>
       </c>
+      <c r="G1" s="24"/>
       <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="K1" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C6" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>62</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
         <v>48</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C9" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="C10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C12" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" s="21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="C15" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="C18" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E18" t="s">
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
         <v>56</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" s="21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C21" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="E21" t="s">
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="C24" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E24" t="s">
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
         <v>32</v>
       </c>
-      <c r="H24" t="s">
+      <c r="G25" t="s">
         <v>36</v>
       </c>
-      <c r="J24" t="s">
+      <c r="I25" t="s">
         <v>37</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7E15B6-0988-40C0-BE82-45B56FF2497E}">
+  <dimension ref="A1:L49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(G2=1,C2,D2)</f>
+        <v>Noruega</v>
+      </c>
+      <c r="J2" t="b">
+        <f>IF(H2&gt;=0,(H2=G2),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I49" si="0">IF(G3=1,C3,D3)</f>
+        <v>Suíça</v>
+      </c>
+      <c r="J3" t="b">
+        <f t="shared" ref="J3:J49" si="1">IF(H3&gt;=0,(H3=G3),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>Nova Zelândia</v>
+      </c>
+      <c r="J4" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>Noruega</v>
+      </c>
+      <c r="J5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>Nova Zelândia</v>
+      </c>
+      <c r="J6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>Noruega</v>
+      </c>
+      <c r="J7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>Austrália</v>
+      </c>
+      <c r="J8" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>Canadá</v>
+      </c>
+      <c r="J9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>Irlanda</v>
+      </c>
+      <c r="J10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>Nigéria</v>
+      </c>
+      <c r="J11" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>Austrália</v>
+      </c>
+      <c r="J12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>Nigéria</v>
+      </c>
+      <c r="J13" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>Espanha</v>
+      </c>
+      <c r="J14" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>Japão</v>
+      </c>
+      <c r="J15" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>Japão</v>
+      </c>
+      <c r="J16" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>Espanha</v>
+      </c>
+      <c r="J17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>Japão</v>
+      </c>
+      <c r="J18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>Zâmbia</v>
+      </c>
+      <c r="J19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>Inglaterra</v>
+      </c>
+      <c r="J20" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>China</v>
+      </c>
+      <c r="J21" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>Dinamarca</v>
+      </c>
+      <c r="J22" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>Haiti</v>
+      </c>
+      <c r="J23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>Inglaterra</v>
+      </c>
+      <c r="J24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>Dinamarca</v>
+      </c>
+      <c r="J25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>Estados Unidos</v>
+      </c>
+      <c r="J26" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.92574699999999999</v>
+      </c>
+      <c r="L26">
+        <f>K26+K30</f>
+        <v>0.93402299999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>Portugal</v>
+      </c>
+      <c r="J27" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.40218900000000002</v>
+      </c>
+      <c r="L27">
+        <f>K27+K29</f>
+        <v>1.108033</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>Países Baixos</v>
+      </c>
+      <c r="J28" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.130995</v>
+      </c>
+      <c r="L28">
+        <f>K28+K31</f>
+        <v>0.14073099999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>Portugal</v>
+      </c>
+      <c r="J29" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.70584400000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>Estados Unidos</v>
+      </c>
+      <c r="J30" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
+        <v>8.2760000000000004E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>Países Baixos</v>
+      </c>
+      <c r="J31" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
+        <v>9.7359999999999999E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>Jamaica</v>
+      </c>
+      <c r="J32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>Brasil</v>
+      </c>
+      <c r="J33" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>Brasil</v>
+      </c>
+      <c r="J34" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>Jamaica</v>
+      </c>
+      <c r="J35" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>França</v>
+      </c>
+      <c r="J36" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>Brasil</v>
+      </c>
+      <c r="J37" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>Suécia</v>
+      </c>
+      <c r="J38" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>Argentina</v>
+      </c>
+      <c r="J39" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>África do Sul</v>
+      </c>
+      <c r="J40" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>Suécia</v>
+      </c>
+      <c r="J41" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>Suécia</v>
+      </c>
+      <c r="J42" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>Itália</v>
+      </c>
+      <c r="J43" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>Alemanha</v>
+      </c>
+      <c r="J44" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>Coreia do Sul</v>
+      </c>
+      <c r="J45" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>Marrocos</v>
+      </c>
+      <c r="J46" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>Colômbia</v>
+      </c>
+      <c r="J47" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>Alemanha</v>
+      </c>
+      <c r="J48" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>Colômbia</v>
+      </c>
+      <c r="J49" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>